--- a/biology/Botanique/Rosa_chinensis/Rosa_chinensis.xlsx
+++ b/biology/Botanique/Rosa_chinensis/Rosa_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier de Chine (Rosa chinensis) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Chinenses originaire du centre de la Chine (Guizhou, Hubei et Sichuan).
 Certaines variétés de Rosa chinensis sont appelées « rosier du Bengale » ou « Bengale rose » avec le nom latin de Rosa indica, synonyme de Rosa chinensis.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 1 à 2 mètres de haut, poussant dans les haies ou formant des fourrés.
 Les feuilles imparipennées ont généralement trois à cinq folioles, chaque foliole, lancéolée-acuminée, ayant 3 à 6 cm de long sur 1 à 3 cm de large.
@@ -546,9 +560,11 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première publication de Rosa chinensis est donnée par Nikolaus Joseph von Jacquin en 1768 dans le nº3 de la revue Observationum Botanicarum[1] (p. 7 &amp; planche 55).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première publication de Rosa chinensis est donnée par Nikolaus Joseph von Jacquin en 1768 dans le nº3 de la revue Observationum Botanicarum (p. 7 &amp; planche 55).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est très largement cultivée en Chine comme plante ornementale ; de nombreux  cultivars ont été sélectionnés pour leurs fleurs de couleurs variées, aux nombreux pétales (fleurs semi-doubles, doubles ou pleines).
 L'espèce a joué également un rôle important dans la création de nombreuses roses de jardins modernes, dont les roses hybrides de thé et est à l'origine des variétés dites « remontantes », c'est-à-dire à floraison continue, ou refleurissant en été.
@@ -610,7 +628,9 @@
           <t>Mutations de Rosa chinensis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rosa chinensis 'Spontanea' ou 'Henry's Crimson China', présent en Chine et naturalisé en Inde, est un buisson à fleurs simples rouges en juin. C'est un des parents de Rosa odorata, donc de toutes les roses hybrides de thé, et en conséquence de la majorité des roses modernes.
 Rosa chinensis Semperflorens, rosier du Bengale rouge, 'Old Crimson China' aux fleurs rouges, odorantes, demi-doubles qui fleurissent de juin à octobre. C'est une mutation de Rosa chinensis 'Spontanea' cultivée dans les jardins chinois.
@@ -644,7 +664,9 @@
           <t>Hybrides de Rosa chinensis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hybrides directs encore cultivés :
 'Rouletii' et 'Pompon de Paris', rosiers nains à petites fleurs groupées doubles rose pâle ;
@@ -660,7 +682,7 @@
 rosiers Thé ou rosiers à odeur de thé : Rosa odorata × rosiers Bourbons ou rosiers Noisette
 rosiers thé-polyantha : rosiers thé × rosiers polyantha
 hybrides remontants : croisements de ces différents hybrides de Rosa chinensis,
-hybrides de thé : hybrides remontants × rosiers thé dont le premier est 'La France' obtenu par Guillot en 1867[2].</t>
+hybrides de thé : hybrides remontants × rosiers thé dont le premier est 'La France' obtenu par Guillot en 1867.</t>
         </is>
       </c>
     </row>
